--- a/config_debug/activity_042_hlfl_config.xlsx
+++ b/config_debug/activity_042_hlfl_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础配置" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
   <si>
     <t>index|索引</t>
   </si>
@@ -334,6 +334,21 @@
   <si>
     <t>欢乐福利</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
   </si>
 </sst>
 </file>
@@ -953,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1060,7 +1075,7 @@
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="13" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="N2" s="12"/>
       <c r="O2" s="15"/>
@@ -1095,7 +1110,7 @@
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="13" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="16"/>
@@ -1127,7 +1142,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="L4" s="13" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="16"/>
@@ -1159,7 +1174,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="L5" s="13" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="16"/>
@@ -1191,7 +1206,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="L6" s="13" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="16"/>
@@ -1265,7 +1280,7 @@
         <v>1000183</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>48</v>
@@ -1299,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
